--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="15450" windowHeight="3195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestCase</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>Mankar</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Piyush</t>
+  </si>
+  <si>
+    <t>Kumar</t>
   </si>
 </sst>
 </file>
@@ -389,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,6 +438,17 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>TestCase</t>
   </si>
@@ -53,12 +53,19 @@
   </si>
   <si>
     <t>Kumar</t>
+  </si>
+  <si>
+    <t>C:\Users\mkhedkar\eclipse-workspace\CGPracticeProject\TestData.xlsx</t>
+  </si>
+  <si>
+    <t>MKtest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -399,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
@@ -428,6 +435,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -438,6 +448,9 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
